--- a/medicine/Médecine vétérinaire/Trichinella_spiralis/Trichinella_spiralis.xlsx
+++ b/medicine/Médecine vétérinaire/Trichinella_spiralis/Trichinella_spiralis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Trichinella spiralis ou Trichine est une espèce de nématodes, un embranchement de vers non segmentés recouverts d'une épaisse cuticule et menant une vie libre ou parasitaire.
-Trichinella spiralis est un ver parasite, agent de la trichinose chez l'homme et de nombreux mammifères : il parasite surtout les rongeurs et les suidae (porcs, sangliers...) ; mais aussi près de 40 millions d'êtres humains sont infectés chaque année en mangeant de la viande de porc pas assez cuite[1].
+Trichinella spiralis est un ver parasite, agent de la trichinose chez l'homme et de nombreux mammifères : il parasite surtout les rongeurs et les suidae (porcs, sangliers...) ; mais aussi près de 40 millions d'êtres humains sont infectés chaque année en mangeant de la viande de porc pas assez cuite.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Trichine (Trichinella spiralis) est un ver rond de très petite taille. Parasite non spécifique, il peut se développer chez tous les mammifères. La présence des adultes dans l'intestin, puis des larves dans les masses musculaires, constitue la trichinellose.
 </t>
@@ -544,7 +558,9 @@
           <t>Répartition géographique et importance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bien que les cas humains de trichinellose soient devenus assez rares, 4 ordres de faits justifient l'intérêt qui s'attache à cette parasitose :
 l'extrême gravité des infestations massives, qui aboutissent très souvent à 50 % de mortalité ;
@@ -578,7 +594,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mâle, en massue, mesure à peine 1,5 mm. La femelle, deux fois plus longue, est blanchâtre et rappelle, avec son extrémité antérieure effilée, celle du trichocéphale.
 </t>
@@ -609,7 +627,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La Trichine est un parasite des mammifères. Le cycle est à un seul hôte, sans phase de vie libre. Le ver adulte vit dans l'intestin grêle. Après l'accouplement, la femelle pénètre dans les cryptes de Lieberkühn puis dans les espaces lymphatiques. Vivipare, elle libère une moyenne de 15 000 larves qui, par le cœur gauche, gagnent les masses musculaires où elles s'enkystent.
 Pour que le cycle soit bouclé, il faut que les muscles parasités servent de repas à un mammifère neuf, carnassier ou omnivore. Libérées par digestion de leur kyste, les larves gagnent l'intestin grêle et deviennent adultes.
@@ -642,7 +662,9 @@
           <t>Clinique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les infestations légères, mal étiquetées ou inapparentes sont des diagnostics d'autopsies systématiques : 16 % en moyenne aux États-Unis, où la maladie serait actuellement liée à la consommation de "saucisses d'été", faites à la maison.
 Par contre, la Trichine libérant dans l'organisme des métabolites hautement toxiques et allergisants, les infestations massives constituent des affections graves aboutissant souvent à la mort. Leur tableau clinique dramatique associe un syndrome inflammatoire important aux actions successives ou combinées des vers adultes sur l'intestin (phase d'invasion), des larves en migration vers les muscles (phase d'état) et des larves enkystées (phase de chronicité).
@@ -687,7 +709,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diagnostic clinique sera fait exceptionnellement (foyer actif connu, pseudo-épidémie locale), et la confirmation parasitologique rarement possible, par découverte d'adultes dans les selles au début, de larves dans le sang, la lymphe ou le LCR plus tard, de kystes dans des biopsies musculaires enfin. La forte éosinophilie doit diriger vers des examens sérologiques qui seront positifs, et enfin vers des radiographies au stade de calcification.
 </t>
@@ -718,7 +742,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>À la phase de début, intestinale, n'importe quel antihelmintique peut guérir le malade, pipérazine ou albendazole par exemple ; cependant cette phase n'est pratiquement jamais diagnostiquée.
 Au stade tissulaire, un seul traitement semble actif à l'heure actuelle : le thiabendazole ou Mintezol.
